--- a/data/trans_orig/P36B10-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36B10-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>16772</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10151</v>
+        <v>9484</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>27767</v>
+        <v>27355</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02416684479074574</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01462619972726582</v>
+        <v>0.01366534113120765</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04001011410089129</v>
+        <v>0.03941558548065815</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>32</v>
@@ -764,19 +764,19 @@
         <v>32558</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>21785</v>
+        <v>22520</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>44248</v>
+        <v>44620</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.04729787260444922</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03164858825963763</v>
+        <v>0.03271531083412547</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06428185330536877</v>
+        <v>0.06482170765303211</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>49</v>
@@ -785,19 +785,19 @@
         <v>49330</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>36502</v>
+        <v>36485</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>64453</v>
+        <v>64706</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03568499524252292</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02640548795612713</v>
+        <v>0.02639320663722932</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04662512585360735</v>
+        <v>0.04680856116759623</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>58781</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>45202</v>
+        <v>47061</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>74918</v>
+        <v>76250</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.08469769289739734</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06513167197990373</v>
+        <v>0.06781067595367399</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1079498155667647</v>
+        <v>0.1098684983691744</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>93</v>
@@ -835,19 +835,19 @@
         <v>92709</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>77075</v>
+        <v>74357</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>111256</v>
+        <v>111392</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1346822365231706</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1119703211067133</v>
+        <v>0.1080223976145026</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1616265974187493</v>
+        <v>0.1618245092350736</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>152</v>
@@ -856,19 +856,19 @@
         <v>151490</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>131147</v>
+        <v>129298</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>177738</v>
+        <v>174615</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1095876155753683</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09487183006662027</v>
+        <v>0.0935342274041002</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1285752173279992</v>
+        <v>0.1263166115151934</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>186522</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>163580</v>
+        <v>164318</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>209940</v>
+        <v>209121</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2687583402962196</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2357024326385018</v>
+        <v>0.2367659289479963</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3025012818705093</v>
+        <v>0.301321805201738</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>276</v>
@@ -906,19 +906,19 @@
         <v>275704</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>249530</v>
+        <v>249558</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>300700</v>
+        <v>299676</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4005289288650272</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3625044123317742</v>
+        <v>0.362544718111615</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4368411917224942</v>
+        <v>0.4353536172329601</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>461</v>
@@ -927,19 +927,19 @@
         <v>462226</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>428981</v>
+        <v>430403</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>497460</v>
+        <v>497965</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3343738190582829</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3103242219622426</v>
+        <v>0.3113533124705236</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3598618109137047</v>
+        <v>0.3602274869575722</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>205722</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>183616</v>
+        <v>180637</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>231249</v>
+        <v>229302</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2964238304962026</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2645716260571882</v>
+        <v>0.2602792637674032</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.333205842945425</v>
+        <v>0.3304001938248233</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>201</v>
@@ -977,19 +977,19 @@
         <v>197110</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>175866</v>
+        <v>174835</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>221977</v>
+        <v>220576</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2863517051388762</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2554892985714805</v>
+        <v>0.2539908714211581</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3224766184369381</v>
+        <v>0.3204418465598922</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>402</v>
@@ -998,19 +998,19 @@
         <v>402832</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>370656</v>
+        <v>368589</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>436770</v>
+        <v>437908</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2914083916592774</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2681322707569174</v>
+        <v>0.2666371977087585</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3159590785637106</v>
+        <v>0.3167820738531436</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>226215</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>200488</v>
+        <v>203881</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>253243</v>
+        <v>249834</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3259532915194348</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.288882153343977</v>
+        <v>0.2937717279341738</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3648978551878309</v>
+        <v>0.3599854784764345</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>94</v>
@@ -1048,19 +1048,19 @@
         <v>90270</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>73022</v>
+        <v>74185</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>108406</v>
+        <v>107900</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1311392568684768</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1060829390088227</v>
+        <v>0.1077714833763952</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.157487007323145</v>
+        <v>0.1567520512019304</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>315</v>
@@ -1069,19 +1069,19 @@
         <v>316485</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>285913</v>
+        <v>287002</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>347548</v>
+        <v>349666</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2289451784645485</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2068294236565485</v>
+        <v>0.2076171721688166</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.251416116916501</v>
+        <v>0.252948108993037</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>58023</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>44385</v>
+        <v>43912</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>75580</v>
+        <v>74689</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06058746999429447</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.0463466187020982</v>
+        <v>0.04585341901891641</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07892105942273331</v>
+        <v>0.07799069140164251</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>71</v>
@@ -1194,19 +1194,19 @@
         <v>78383</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>62706</v>
+        <v>63209</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>97213</v>
+        <v>97256</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.08125010603506187</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.0649997004841099</v>
+        <v>0.06552070722728139</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1007690056772613</v>
+        <v>0.1008134644442194</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>123</v>
@@ -1215,19 +1215,19 @@
         <v>136406</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>112668</v>
+        <v>112682</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>159670</v>
+        <v>160267</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07095664597403373</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05860825481306262</v>
+        <v>0.05861593825232277</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08305814135939082</v>
+        <v>0.08336865564366565</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>99517</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>82256</v>
+        <v>79019</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>119594</v>
+        <v>118732</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1039155735112884</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.08589149457955911</v>
+        <v>0.08251132652054519</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1248801449515234</v>
+        <v>0.1239799995157519</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>141</v>
@@ -1265,19 +1265,19 @@
         <v>151935</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>132155</v>
+        <v>130339</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>177591</v>
+        <v>174546</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1574922802095851</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1369883146610854</v>
+        <v>0.1351057356376654</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1840860063344617</v>
+        <v>0.180930592890536</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>234</v>
@@ -1286,19 +1286,19 @@
         <v>251452</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>224112</v>
+        <v>222445</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>281875</v>
+        <v>282985</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1308020897850794</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1165803322172153</v>
+        <v>0.1157132171191819</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1466276934756542</v>
+        <v>0.1472048917888344</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>300560</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>271527</v>
+        <v>271010</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>328765</v>
+        <v>331276</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3138449991204534</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2835289842550613</v>
+        <v>0.2829889357037758</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3432963866172848</v>
+        <v>0.3459188108345802</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>406</v>
@@ -1336,19 +1336,19 @@
         <v>435744</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>403007</v>
+        <v>406707</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>466032</v>
+        <v>468230</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4516811343377817</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4177472933700053</v>
+        <v>0.4215820526243723</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4830776878515773</v>
+        <v>0.4853556512308895</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>679</v>
@@ -1357,19 +1357,19 @@
         <v>736304</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>689992</v>
+        <v>695898</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>783960</v>
+        <v>779767</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.383015609279569</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3589248341994908</v>
+        <v>0.3619970844219797</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4078055907743426</v>
+        <v>0.4056244226094716</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>308664</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>280579</v>
+        <v>276424</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>341245</v>
+        <v>335196</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3223071555094477</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2929803212825567</v>
+        <v>0.2886417281844493</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3563274959755811</v>
+        <v>0.3500120017813591</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>218</v>
@@ -1407,19 +1407,19 @@
         <v>230023</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>205404</v>
+        <v>204239</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>256232</v>
+        <v>258255</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2384362287131033</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2129170463361603</v>
+        <v>0.2117091557162468</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2656042384763659</v>
+        <v>0.2677004094150122</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>508</v>
@@ -1428,19 +1428,19 @@
         <v>538687</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>500084</v>
+        <v>501827</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>582121</v>
+        <v>579657</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2802180242960217</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2601369743102097</v>
+        <v>0.2610440772212542</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3028116456430132</v>
+        <v>0.3015300860167548</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>190907</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>166048</v>
+        <v>164011</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>215597</v>
+        <v>214473</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.199344801864516</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1733875529063827</v>
+        <v>0.1712604943555668</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2251259159659064</v>
+        <v>0.2239526923013894</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>69</v>
@@ -1478,19 +1478,19 @@
         <v>68630</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>53584</v>
+        <v>51952</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>86828</v>
+        <v>84397</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.07114025070446797</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.05554338805250763</v>
+        <v>0.05385231038548303</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.09000365157548225</v>
+        <v>0.08748357599449713</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>254</v>
@@ -1499,19 +1499,19 @@
         <v>259537</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>230614</v>
+        <v>233291</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>288800</v>
+        <v>289714</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1350076306652961</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1199625081618112</v>
+        <v>0.1213549681745399</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1502297662897995</v>
+        <v>0.1507052723492281</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>51718</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>37953</v>
+        <v>38092</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>66797</v>
+        <v>69129</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07641547999458853</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05607690497517593</v>
+        <v>0.05628329166920457</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09869559379129264</v>
+        <v>0.1021410753160264</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>96</v>
@@ -1624,19 +1624,19 @@
         <v>94400</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>77205</v>
+        <v>77199</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>113073</v>
+        <v>112274</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.138472056677353</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1132487665979504</v>
+        <v>0.1132406030261426</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1658628800643044</v>
+        <v>0.1646902009309089</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>142</v>
@@ -1645,19 +1645,19 @@
         <v>146118</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>123405</v>
+        <v>124795</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>170200</v>
+        <v>170035</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1075564133191871</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.09083737126431352</v>
+        <v>0.09186066651758001</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1252831035949485</v>
+        <v>0.1251619269644519</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>113943</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>94989</v>
+        <v>96452</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>134359</v>
+        <v>134673</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.16835636003994</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.140350834158445</v>
+        <v>0.1425122943816274</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1985220165305759</v>
+        <v>0.1989864900447375</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>156</v>
@@ -1695,19 +1695,19 @@
         <v>154699</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>135154</v>
+        <v>133351</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>176222</v>
+        <v>175923</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2269215315176524</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1982526175841688</v>
+        <v>0.1956071972591013</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2584937935479025</v>
+        <v>0.2580544758868436</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>263</v>
@@ -1716,19 +1716,19 @@
         <v>268642</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>239944</v>
+        <v>239178</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>301033</v>
+        <v>295712</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1977452531697419</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1766208692232013</v>
+        <v>0.1760572540059041</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2215881430485409</v>
+        <v>0.2176716356650171</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>202431</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>178401</v>
+        <v>177576</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>226812</v>
+        <v>226786</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2991016199624956</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2635967748562735</v>
+        <v>0.2623778728919055</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3351261287638795</v>
+        <v>0.3350873345953458</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>255</v>
@@ -1766,19 +1766,19 @@
         <v>251273</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>228829</v>
+        <v>227130</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>276226</v>
+        <v>276970</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3685830063634798</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3356595525057058</v>
+        <v>0.3331685069834983</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4051855511108951</v>
+        <v>0.4062766114830991</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>451</v>
@@ -1787,19 +1787,19 @@
         <v>453704</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>419386</v>
+        <v>416082</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>485846</v>
+        <v>487624</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3339684356470717</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3087070465424305</v>
+        <v>0.3062749421374958</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3576279139494636</v>
+        <v>0.3589369307013143</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>216977</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>194073</v>
+        <v>192668</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>244178</v>
+        <v>243720</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3205944644788222</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2867522953923098</v>
+        <v>0.2846771679423391</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3607857134910114</v>
+        <v>0.3601082596686259</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>147</v>
@@ -1837,19 +1837,19 @@
         <v>143298</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>121277</v>
+        <v>122470</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>162657</v>
+        <v>165484</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2101984458359103</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1778960102417012</v>
+        <v>0.1796470911907277</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2385953032818611</v>
+        <v>0.242741807942573</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>347</v>
@@ -1858,19 +1858,19 @@
         <v>360275</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>328887</v>
+        <v>330923</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>391907</v>
+        <v>395840</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2651960645085112</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2420916619900535</v>
+        <v>0.243590383232299</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2884796941530097</v>
+        <v>0.2913752576649188</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>91728</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>75028</v>
+        <v>73993</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>111556</v>
+        <v>110044</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1355320755241537</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1108583289903086</v>
+        <v>0.1093286708391947</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1648289556454801</v>
+        <v>0.1625949611887526</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>39</v>
@@ -1908,19 +1908,19 @@
         <v>38057</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>27522</v>
+        <v>27818</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>50764</v>
+        <v>51734</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.05582495960560453</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.04037155358824281</v>
+        <v>0.04080563443671345</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.07446371043643524</v>
+        <v>0.07588603548980402</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>129</v>
@@ -1929,19 +1929,19 @@
         <v>129785</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>110758</v>
+        <v>110705</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>151582</v>
+        <v>152436</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.09553383335548797</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.0815281489684235</v>
+        <v>0.08148911595843289</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1115781831184416</v>
+        <v>0.1122069173242478</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>45190</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>32783</v>
+        <v>33576</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>59388</v>
+        <v>60680</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.04805010439360072</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03485825621100186</v>
+        <v>0.03570084308992311</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.06314640264474479</v>
+        <v>0.06452083297224408</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>67</v>
@@ -2054,19 +2054,19 @@
         <v>71017</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>56197</v>
+        <v>55868</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>91383</v>
+        <v>90109</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.06864638677204049</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05432133459101891</v>
+        <v>0.05400304047183298</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.08833268459598552</v>
+        <v>0.08710131968437149</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>112</v>
@@ -2075,19 +2075,19 @@
         <v>116207</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>96605</v>
+        <v>96294</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>137968</v>
+        <v>138732</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.05883869547215396</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0489135506953869</v>
+        <v>0.04875624387639187</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.0698567811574361</v>
+        <v>0.07024363466589643</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>109709</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>90769</v>
+        <v>93081</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>129322</v>
+        <v>132214</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1166524234557902</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.09651417930170489</v>
+        <v>0.09897243765995155</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1375071078460324</v>
+        <v>0.1405818489286396</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>164</v>
@@ -2125,19 +2125,19 @@
         <v>175200</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>152084</v>
+        <v>152110</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>200202</v>
+        <v>201891</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.169351232568125</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1470068329818327</v>
+        <v>0.1470325237257048</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1935188133037883</v>
+        <v>0.1951507846269394</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>280</v>
@@ -2146,19 +2146,19 @@
         <v>284909</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>257041</v>
+        <v>252973</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>318331</v>
+        <v>317766</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1442567207456191</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1301465972244188</v>
+        <v>0.1280868837017799</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.161179294553253</v>
+        <v>0.1608931528070178</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>334072</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>303931</v>
+        <v>304999</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>362338</v>
+        <v>362376</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3552160931862386</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3231668018284973</v>
+        <v>0.3243032820424734</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3852706833235714</v>
+        <v>0.3853113807915108</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>410</v>
@@ -2196,19 +2196,19 @@
         <v>425305</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>393582</v>
+        <v>393928</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>458674</v>
+        <v>459489</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.4111071645017686</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3804426906534497</v>
+        <v>0.3807775300118831</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.4433624107858369</v>
+        <v>0.4441501926251224</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>761</v>
@@ -2217,19 +2217,19 @@
         <v>759377</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>713581</v>
+        <v>718695</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>802456</v>
+        <v>806462</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.384492537463227</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3613047525101025</v>
+        <v>0.3638939322299161</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.4063044562906381</v>
+        <v>0.4083326926689904</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>269578</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>244461</v>
+        <v>240749</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>298830</v>
+        <v>296700</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2866399258062321</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2599331146212068</v>
+        <v>0.2559860733576848</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3177431035409818</v>
+        <v>0.3154782953143744</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>231</v>
@@ -2267,19 +2267,19 @@
         <v>238255</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>211050</v>
+        <v>210943</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>266694</v>
+        <v>265955</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2303010067051565</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2040047746542301</v>
+        <v>0.2039011687318723</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2577909229851223</v>
+        <v>0.2570763456592056</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>516</v>
@@ -2288,19 +2288,19 @@
         <v>507833</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>468761</v>
+        <v>471097</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>547203</v>
+        <v>549104</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2571288932411775</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2373459287160606</v>
+        <v>0.2385287582202925</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.277063228355727</v>
+        <v>0.2780254625903967</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>181927</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>159909</v>
+        <v>158750</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>204761</v>
+        <v>205888</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1934414531581384</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1700294690673296</v>
+        <v>0.1687979610256314</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2177210419005744</v>
+        <v>0.218919037366774</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>121</v>
@@ -2338,19 +2338,19 @@
         <v>124759</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>101856</v>
+        <v>102988</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>144421</v>
+        <v>145336</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1205942094529094</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.09845620063589104</v>
+        <v>0.09954979490841012</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.139599692744272</v>
+        <v>0.1404841319803505</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>316</v>
@@ -2359,19 +2359,19 @@
         <v>306686</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>275592</v>
+        <v>277531</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>340394</v>
+        <v>337313</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1552831530778225</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1395392829812087</v>
+        <v>0.1405212138684822</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1723501751808676</v>
+        <v>0.1707901347503204</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>171703</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>145338</v>
+        <v>146817</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>199881</v>
+        <v>200310</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.05252522388182371</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.04445995506010206</v>
+        <v>0.04491242693082637</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.06114531145882873</v>
+        <v>0.06127658054476685</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>266</v>
@@ -2484,19 +2484,19 @@
         <v>276358</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>244660</v>
+        <v>241997</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>311503</v>
+        <v>310375</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.08202169364175385</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.07261395411347268</v>
+        <v>0.07182341361150314</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.09245258619613132</v>
+        <v>0.09211782400021994</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>426</v>
@@ -2505,19 +2505,19 @@
         <v>448061</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>404132</v>
+        <v>412408</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>491638</v>
+        <v>498864</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.06749646209982216</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.06087903162292786</v>
+        <v>0.06212562572944566</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.07406106462290378</v>
+        <v>0.07514951185978144</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>381950</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>344743</v>
+        <v>342906</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>417744</v>
+        <v>415069</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1168415743340402</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1054596169419573</v>
+        <v>0.1048976858469322</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1277912665500984</v>
+        <v>0.1269730640640118</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>554</v>
@@ -2555,19 +2555,19 @@
         <v>574543</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>533293</v>
+        <v>530407</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>622359</v>
+        <v>620364</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.1705212929911171</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1582787571303902</v>
+        <v>0.1574222335496422</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.1847130301520613</v>
+        <v>0.1841208504710938</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>929</v>
@@ -2576,19 +2576,19 @@
         <v>956492</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>901617</v>
+        <v>897418</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1016632</v>
+        <v>1017060</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1440872705828152</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1358207426043873</v>
+        <v>0.1351881704255587</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.1531468091662268</v>
+        <v>0.1532112548805254</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>1023585</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>974965</v>
+        <v>971892</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1082320</v>
+        <v>1078205</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3131229261679206</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2982497298182122</v>
+        <v>0.2973095570897372</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3310905054508715</v>
+        <v>0.3298317961857907</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1347</v>
@@ -2626,19 +2626,19 @@
         <v>1388027</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1334175</v>
+        <v>1327323</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1440755</v>
+        <v>1451697</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.4119592286257509</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3959762224043706</v>
+        <v>0.3939426351943077</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.4276088828932292</v>
+        <v>0.4308562808295784</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2352</v>
@@ -2647,19 +2647,19 @@
         <v>2411611</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2334382</v>
+        <v>2334012</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2491357</v>
+        <v>2500272</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3632883134405508</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3516544395277404</v>
+        <v>0.3515986046692191</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3753012376450899</v>
+        <v>0.3766443100793949</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>1000941</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>950575</v>
+        <v>951220</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>1059054</v>
+        <v>1058873</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3061959938545494</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2907887255102601</v>
+        <v>0.2909859405000789</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3239732046909603</v>
+        <v>0.3239178519345594</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>797</v>
@@ -2697,19 +2697,19 @@
         <v>808686</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>760797</v>
+        <v>760570</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>858078</v>
+        <v>860952</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2400139924432808</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2258007211727358</v>
+        <v>0.2257333151736725</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2546732287516156</v>
+        <v>0.2555261496371102</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1773</v>
@@ -2718,19 +2718,19 @@
         <v>1809627</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1737688</v>
+        <v>1736915</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1881095</v>
+        <v>1882730</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2726046347211926</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2617675844603933</v>
+        <v>0.2616510986068691</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2833705649800397</v>
+        <v>0.2836168580467683</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>690777</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>643319</v>
+        <v>645960</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>739595</v>
+        <v>737508</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2113142817616661</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1967964190669245</v>
+        <v>0.197604567900685</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2262481744160535</v>
+        <v>0.2256098314813457</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>323</v>
@@ -2768,19 +2768,19 @@
         <v>321716</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>290345</v>
+        <v>288502</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>354848</v>
+        <v>351789</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.09548379229809743</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.08617281083362027</v>
+        <v>0.08562594140090872</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.105317061921012</v>
+        <v>0.1044091780632276</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>1014</v>
@@ -2789,19 +2789,19 @@
         <v>1012493</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>951402</v>
+        <v>953394</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>1068867</v>
+        <v>1072314</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1525233191556192</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1433203884773547</v>
+        <v>0.1436205394687007</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1610155327162712</v>
+        <v>0.1615348344736267</v>
       </c>
     </row>
     <row r="33">
@@ -3133,19 +3133,19 @@
         <v>40964</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>30003</v>
+        <v>30618</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>56027</v>
+        <v>55606</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05847131737523046</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04282545798986515</v>
+        <v>0.04370419801207195</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0799720460874976</v>
+        <v>0.07937161998669548</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>68</v>
@@ -3154,19 +3154,19 @@
         <v>72590</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>57552</v>
+        <v>57432</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>89158</v>
+        <v>93062</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1053543187728618</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.08352855018334449</v>
+        <v>0.08335400102050831</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1293999747725197</v>
+        <v>0.1350652623514957</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>108</v>
@@ -3175,19 +3175,19 @@
         <v>113554</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>92656</v>
+        <v>95065</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>136141</v>
+        <v>135908</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0817176802097528</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.06667889266772041</v>
+        <v>0.06841249938932417</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0979718002629263</v>
+        <v>0.09780449914954319</v>
       </c>
     </row>
     <row r="5">
@@ -3204,19 +3204,19 @@
         <v>150696</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>129744</v>
+        <v>128131</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>173874</v>
+        <v>173513</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2151024870882478</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1851959811923698</v>
+        <v>0.1828926009098102</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2481860302229705</v>
+        <v>0.2476714577714253</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>165</v>
@@ -3225,19 +3225,19 @@
         <v>174151</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>149325</v>
+        <v>151871</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>195536</v>
+        <v>198018</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2527548295452349</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2167230402909412</v>
+        <v>0.2204179068366277</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2837915784180776</v>
+        <v>0.2873948027913014</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>305</v>
@@ -3246,19 +3246,19 @@
         <v>324847</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>290917</v>
+        <v>292077</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>355090</v>
+        <v>355280</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2337719405837963</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2093543970324349</v>
+        <v>0.2101892110367932</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2555359092754445</v>
+        <v>0.2556727012851273</v>
       </c>
     </row>
     <row r="6">
@@ -3275,19 +3275,19 @@
         <v>218451</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>195450</v>
+        <v>195725</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>244505</v>
+        <v>246012</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3118143626034368</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2789830232558994</v>
+        <v>0.2793763368559534</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3490042154717015</v>
+        <v>0.3511558143167426</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>241</v>
@@ -3296,19 +3296,19 @@
         <v>263665</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>235093</v>
+        <v>235359</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>290778</v>
+        <v>287819</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3826715135852029</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3412035964746594</v>
+        <v>0.3415890008994131</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4220210105777709</v>
+        <v>0.4177270376224553</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>450</v>
@@ -3317,19 +3317,19 @@
         <v>482116</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>448265</v>
+        <v>446279</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>522189</v>
+        <v>516885</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.346948014290376</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3225874746984282</v>
+        <v>0.3211585823299531</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3757862890119046</v>
+        <v>0.3719690633776735</v>
       </c>
     </row>
     <row r="7">
@@ -3346,19 +3346,19 @@
         <v>202431</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>177578</v>
+        <v>177375</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>228533</v>
+        <v>227970</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2889485736601171</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2534729919532847</v>
+        <v>0.253183338295156</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3262062950938544</v>
+        <v>0.3254024655821686</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>128</v>
@@ -3367,19 +3367,19 @@
         <v>135154</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>113090</v>
+        <v>114746</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>156550</v>
+        <v>155371</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1961561707387874</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1641337294958256</v>
+        <v>0.166536920925443</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2272095441138067</v>
+        <v>0.2254978714356562</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>321</v>
@@ -3388,19 +3388,19 @@
         <v>337585</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>307902</v>
+        <v>306580</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>371336</v>
+        <v>370553</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2429385955808253</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2215771144963741</v>
+        <v>0.2206258977605499</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2672268109179962</v>
+        <v>0.2666636730434925</v>
       </c>
     </row>
     <row r="8">
@@ -3417,19 +3417,19 @@
         <v>88037</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>70990</v>
+        <v>71681</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>104259</v>
+        <v>107100</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1256632592729679</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1013309180136697</v>
+        <v>0.1023161969860205</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1488182963711668</v>
+        <v>0.1528737686854671</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>42</v>
@@ -3438,19 +3438,19 @@
         <v>43451</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>32872</v>
+        <v>31792</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>57541</v>
+        <v>56450</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.06306316735791302</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.04770867307089513</v>
+        <v>0.0461412311596788</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.08351224305763673</v>
+        <v>0.08192827951888886</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>132</v>
@@ -3459,19 +3459,19 @@
         <v>131488</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>112101</v>
+        <v>112191</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>156157</v>
+        <v>156434</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.09462376933524953</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.08067176217349953</v>
+        <v>0.08073638482445165</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1123764214137073</v>
+        <v>0.1125758329364891</v>
       </c>
     </row>
     <row r="9">
@@ -3563,19 +3563,19 @@
         <v>72805</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>56222</v>
+        <v>56711</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>93866</v>
+        <v>91549</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.07188716581111561</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.05551332735276499</v>
+        <v>0.05599599231292189</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.09268330465291194</v>
+        <v>0.09039508384027768</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>88</v>
@@ -3584,19 +3584,19 @@
         <v>98020</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>78510</v>
+        <v>79910</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>118452</v>
+        <v>117615</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.09546079537507579</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.07646027716447817</v>
+        <v>0.07782328250353616</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1153586908872982</v>
+        <v>0.1145436857474951</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>151</v>
@@ -3605,19 +3605,19 @@
         <v>170825</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>145815</v>
+        <v>147617</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>195774</v>
+        <v>199729</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.08375517044761975</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.07149301025243301</v>
+        <v>0.07237632796547709</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.09598768114757716</v>
+        <v>0.09792700633823254</v>
       </c>
     </row>
     <row r="11">
@@ -3634,19 +3634,19 @@
         <v>195245</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>172721</v>
+        <v>170882</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>223404</v>
+        <v>223636</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1927843822083818</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1705444547745404</v>
+        <v>0.1687288502197843</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2205886092069325</v>
+        <v>0.220817243620627</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>257</v>
@@ -3655,19 +3655,19 @@
         <v>279755</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>252590</v>
+        <v>249842</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>308773</v>
+        <v>311681</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2724503149805478</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2459947397223339</v>
+        <v>0.2433181578818743</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3007109889278022</v>
+        <v>0.3035424411048259</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>436</v>
@@ -3676,19 +3676,19 @@
         <v>475000</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>437494</v>
+        <v>431993</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>519146</v>
+        <v>515204</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2328917257528377</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2145026615776197</v>
+        <v>0.2118053052561095</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2545367161504214</v>
+        <v>0.2526036862900956</v>
       </c>
     </row>
     <row r="12">
@@ -3705,19 +3705,19 @@
         <v>290560</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>261813</v>
+        <v>263613</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>323974</v>
+        <v>321106</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2868986866625386</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2585138308388878</v>
+        <v>0.2602905387694032</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3198913981724983</v>
+        <v>0.3170593336725444</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>291</v>
@@ -3726,19 +3726,19 @@
         <v>321719</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>290395</v>
+        <v>291885</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>354626</v>
+        <v>356144</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3133183452309626</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2828129073942641</v>
+        <v>0.2842635683245105</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3453662391274211</v>
+        <v>0.3468447054281185</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>560</v>
@@ -3747,19 +3747,19 @@
         <v>612279</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>568341</v>
+        <v>572874</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>655741</v>
+        <v>655322</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3001995077997415</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2786569049503271</v>
+        <v>0.280879165213364</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3215089020688785</v>
+        <v>0.321303257747121</v>
       </c>
     </row>
     <row r="13">
@@ -3776,19 +3776,19 @@
         <v>315091</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>285523</v>
+        <v>287876</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>343788</v>
+        <v>345382</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3111202623441651</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2819246569114314</v>
+        <v>0.2842482703344298</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3394553922247608</v>
+        <v>0.3410292426628554</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>210</v>
@@ -3797,19 +3797,19 @@
         <v>231104</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>204736</v>
+        <v>205913</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>262490</v>
+        <v>262882</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2250691739018149</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1993903313528573</v>
+        <v>0.2005364446603504</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2556360650191749</v>
+        <v>0.2560176690824231</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>502</v>
@@ -3818,19 +3818,19 @@
         <v>546195</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>506434</v>
+        <v>506590</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>588335</v>
+        <v>589356</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2677983498724704</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2483039153991515</v>
+        <v>0.2483801530278733</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2884599132329341</v>
+        <v>0.2889602817115865</v>
       </c>
     </row>
     <row r="14">
@@ -3847,19 +3847,19 @@
         <v>139062</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>118689</v>
+        <v>117406</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>162410</v>
+        <v>162560</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1373095029737989</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1171934832609291</v>
+        <v>0.1159265793624994</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1603631012970495</v>
+        <v>0.1605114394002076</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>89</v>
@@ -3868,19 +3868,19 @@
         <v>96214</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>76699</v>
+        <v>75853</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>115764</v>
+        <v>115164</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.09370137051159882</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.07469612023759331</v>
+        <v>0.07387238025640891</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1127414632514218</v>
+        <v>0.112156997143632</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>217</v>
@@ -3889,19 +3889,19 @@
         <v>235276</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>209010</v>
+        <v>207393</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>269159</v>
+        <v>264013</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1153552461273307</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.102477352501554</v>
+        <v>0.1016845969306326</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1319681125334292</v>
+        <v>0.1294452362917671</v>
       </c>
     </row>
     <row r="15">
@@ -3993,19 +3993,19 @@
         <v>57686</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>43455</v>
+        <v>43285</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>74007</v>
+        <v>75437</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07657624424936804</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05768533095176654</v>
+        <v>0.05745916383575035</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.09824272171991033</v>
+        <v>0.1001403713848092</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>76</v>
@@ -4014,19 +4014,19 @@
         <v>85023</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>69848</v>
+        <v>68561</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>105527</v>
+        <v>106190</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1098600266941439</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.09025219526447652</v>
+        <v>0.08858858817693689</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1363539193440209</v>
+        <v>0.1372099361528554</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>128</v>
@@ -4035,19 +4035,19 @@
         <v>142709</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>118774</v>
+        <v>120604</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>167168</v>
+        <v>167800</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0934427373591902</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07777089012577924</v>
+        <v>0.07896916967282119</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1094582579087025</v>
+        <v>0.1098724309133782</v>
       </c>
     </row>
     <row r="17">
@@ -4064,19 +4064,19 @@
         <v>140900</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>118094</v>
+        <v>119719</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>164216</v>
+        <v>166704</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1870420568525344</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1567665458547688</v>
+        <v>0.1589240565173669</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2179932747974333</v>
+        <v>0.2212961574027596</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>165</v>
@@ -4085,19 +4085,19 @@
         <v>182326</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>160167</v>
+        <v>157725</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>207840</v>
+        <v>205700</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2355869660074264</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2069548039766393</v>
+        <v>0.2037998255688458</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2685544986513133</v>
+        <v>0.2657894313457391</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>287</v>
@@ -4106,19 +4106,19 @@
         <v>323226</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>287675</v>
+        <v>291153</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>357979</v>
+        <v>357278</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2116420967409229</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1883638147653554</v>
+        <v>0.1906411323075007</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2343978037266575</v>
+        <v>0.2339388338000249</v>
       </c>
     </row>
     <row r="18">
@@ -4135,19 +4135,19 @@
         <v>210291</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>185231</v>
+        <v>185519</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>237406</v>
+        <v>239180</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2791563808514666</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2458896539319804</v>
+        <v>0.2462715988549267</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3151510524916808</v>
+        <v>0.3175058967396103</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>221</v>
@@ -4156,19 +4156,19 @@
         <v>245941</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>221123</v>
+        <v>219074</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>275981</v>
+        <v>272470</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3177850644936354</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2857172228730569</v>
+        <v>0.2830697275175537</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3566009617843895</v>
+        <v>0.3520648531448589</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>417</v>
@@ -4177,19 +4177,19 @@
         <v>456232</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>422241</v>
+        <v>419712</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>499355</v>
+        <v>493265</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2987313924227372</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2764752443419062</v>
+        <v>0.274819434270854</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3269675096881111</v>
+        <v>0.3229804883010347</v>
       </c>
     </row>
     <row r="19">
@@ -4206,19 +4206,19 @@
         <v>193584</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>170437</v>
+        <v>167047</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>220464</v>
+        <v>217781</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2569777287990659</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2262510332221851</v>
+        <v>0.2217510564436986</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.292660296550053</v>
+        <v>0.2890987066160497</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>145</v>
@@ -4227,19 +4227,19 @@
         <v>154652</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>132361</v>
+        <v>131048</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>175953</v>
+        <v>176458</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.199828582459627</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1710270858410431</v>
+        <v>0.1693304513042269</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2273520205709833</v>
+        <v>0.2280049186268784</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>323</v>
@@ -4248,19 +4248,19 @@
         <v>348235</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>313268</v>
+        <v>317295</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>386703</v>
+        <v>382073</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2280175081701254</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2051214401503617</v>
+        <v>0.207758207752847</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.253205802932792</v>
+        <v>0.2501740162010497</v>
       </c>
     </row>
     <row r="20">
@@ -4277,19 +4277,19 @@
         <v>150848</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>129603</v>
+        <v>129449</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>176283</v>
+        <v>175433</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2002475892475651</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1720451786996489</v>
+        <v>0.1718406603826033</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2340109749513198</v>
+        <v>0.2328835523778237</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>95</v>
@@ -4298,19 +4298,19 @@
         <v>105980</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>85380</v>
+        <v>87545</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>126032</v>
+        <v>127570</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1369393603451673</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1103219339214849</v>
+        <v>0.1131187378756347</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1628484928281356</v>
+        <v>0.1648357356575403</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>232</v>
@@ -4319,19 +4319,19 @@
         <v>256829</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>226685</v>
+        <v>227356</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>291471</v>
+        <v>287841</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1681662653070244</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1484287522848171</v>
+        <v>0.1488682285431147</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1908496443575714</v>
+        <v>0.1884727593913631</v>
       </c>
     </row>
     <row r="21">
@@ -4423,19 +4423,19 @@
         <v>68431</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>52887</v>
+        <v>52574</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>85568</v>
+        <v>87027</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.0726913601720597</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.05617979598318228</v>
+        <v>0.05584743757864961</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09089549192904083</v>
+        <v>0.09244562369299396</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>131</v>
@@ -4444,19 +4444,19 @@
         <v>142847</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>120601</v>
+        <v>121624</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>166442</v>
+        <v>166505</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1367206799141318</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1154283639857925</v>
+        <v>0.1164078363783885</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1593031791547234</v>
+        <v>0.1593635915059679</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>196</v>
@@ -4465,19 +4465,19 @@
         <v>211278</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>185767</v>
+        <v>180956</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>240407</v>
+        <v>238853</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1063730727598973</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09352910341639144</v>
+        <v>0.09110676723289547</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1210388360317301</v>
+        <v>0.1202563048528024</v>
       </c>
     </row>
     <row r="23">
@@ -4494,19 +4494,19 @@
         <v>212243</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>186416</v>
+        <v>187313</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>242232</v>
+        <v>240357</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2254576368972277</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1980227235628106</v>
+        <v>0.1989760203665303</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2573142125742389</v>
+        <v>0.255322722137473</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>312</v>
@@ -4515,19 +4515,19 @@
         <v>324796</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>297500</v>
+        <v>295466</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>355616</v>
+        <v>356807</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.310866009639345</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2847403202569276</v>
+        <v>0.2827940645288458</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3403638644870995</v>
+        <v>0.3415038144414637</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>506</v>
@@ -4536,19 +4536,19 @@
         <v>537039</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>497246</v>
+        <v>495118</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>578492</v>
+        <v>577102</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2703854961167704</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2503507344997133</v>
+        <v>0.2492797059717914</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2912564867830899</v>
+        <v>0.2905566453358039</v>
       </c>
     </row>
     <row r="24">
@@ -4565,19 +4565,19 @@
         <v>314162</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>287272</v>
+        <v>285702</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>346389</v>
+        <v>342411</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3337230793402371</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3051586599829095</v>
+        <v>0.3034906014026136</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3679564740957655</v>
+        <v>0.3637307637201382</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>291</v>
@@ -4586,19 +4586,19 @@
         <v>303999</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>277285</v>
+        <v>272000</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>336993</v>
+        <v>334614</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2909608511880857</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2653925643072053</v>
+        <v>0.2603343886237416</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3225398733407642</v>
+        <v>0.3202632280709237</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>598</v>
@@ -4607,19 +4607,19 @@
         <v>618161</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>577819</v>
+        <v>576809</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>661669</v>
+        <v>660765</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3112286176773887</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2909172640272207</v>
+        <v>0.2904090102555343</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3331339023518815</v>
+        <v>0.3326788185866537</v>
       </c>
     </row>
     <row r="25">
@@ -4636,19 +4636,19 @@
         <v>223703</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>198286</v>
+        <v>199787</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>253326</v>
+        <v>249977</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2376315285721917</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2106324328976598</v>
+        <v>0.2122262661247126</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2690986694847936</v>
+        <v>0.2655418661804078</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>173</v>
@@ -4657,19 +4657,19 @@
         <v>179499</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>155045</v>
+        <v>154465</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>205203</v>
+        <v>205601</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1718010544372067</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1483954151705674</v>
+        <v>0.1478401169533723</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.196401895574645</v>
+        <v>0.1967835094956404</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>389</v>
@@ -4678,19 +4678,19 @@
         <v>403202</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>367203</v>
+        <v>367426</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>439149</v>
+        <v>439219</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2030023443442868</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1848775499820796</v>
+        <v>0.1849899294749874</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2211004979280867</v>
+        <v>0.2211358047686853</v>
       </c>
     </row>
     <row r="26">
@@ -4707,19 +4707,19 @@
         <v>122847</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>101372</v>
+        <v>103712</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>144343</v>
+        <v>144108</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1304963950182838</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1076839355018527</v>
+        <v>0.1101693701607936</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1533304418343299</v>
+        <v>0.1530806170625433</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>90</v>
@@ -4728,19 +4728,19 @@
         <v>93669</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>77346</v>
+        <v>76240</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>114581</v>
+        <v>112136</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.08965140482123073</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.074028781605</v>
+        <v>0.07297063554562212</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1096670092674473</v>
+        <v>0.1073264867156088</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>212</v>
@@ -4749,19 +4749,19 @@
         <v>216516</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>190252</v>
+        <v>189461</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>246350</v>
+        <v>246164</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1090104691016567</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09578688979831645</v>
+        <v>0.09538879200051595</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1240308481159895</v>
+        <v>0.1239371679579247</v>
       </c>
     </row>
     <row r="27">
@@ -4853,19 +4853,19 @@
         <v>239885</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>207572</v>
+        <v>209028</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>272913</v>
+        <v>271590</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.07038792018756238</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.06090661815830937</v>
+        <v>0.06133388865357928</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.08007926751799306</v>
+        <v>0.07969089095978885</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>363</v>
@@ -4874,19 +4874,19 @@
         <v>398481</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>363989</v>
+        <v>360048</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>440022</v>
+        <v>442543</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1127386090479055</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1029802051885088</v>
+        <v>0.1018650681807416</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.124491430912667</v>
+        <v>0.1252046576601347</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>583</v>
@@ -4895,19 +4895,19 @@
         <v>638365</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>586655</v>
+        <v>589591</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>687247</v>
+        <v>688241</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.09194915088355692</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.08450088411106206</v>
+        <v>0.08492383752456653</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.09898993160892516</v>
+        <v>0.0991331308406458</v>
       </c>
     </row>
     <row r="29">
@@ -4924,19 +4924,19 @@
         <v>699084</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>653199</v>
+        <v>647953</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>752672</v>
+        <v>756319</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2051281465592037</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1916642072222912</v>
+        <v>0.190124924099927</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2208520126290282</v>
+        <v>0.221922193964293</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>899</v>
@@ -4945,19 +4945,19 @@
         <v>961028</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>903198</v>
+        <v>909145</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>1012582</v>
+        <v>1015635</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2718950499706376</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2555337973382025</v>
+        <v>0.257216300631376</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2864808213155945</v>
+        <v>0.2873445496774829</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1534</v>
@@ -4966,19 +4966,19 @@
         <v>1660112</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1587239</v>
+        <v>1586819</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1739965</v>
+        <v>1729251</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2391199574612247</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.2286234515493475</v>
+        <v>0.228562880152921</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.250621790382791</v>
+        <v>0.2490786332543379</v>
       </c>
     </row>
     <row r="30">
@@ -4995,19 +4995,19 @@
         <v>1033464</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>979496</v>
+        <v>981484</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1090434</v>
+        <v>1090651</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3032432543128324</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.287407628933861</v>
+        <v>0.2879910310971768</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3199594471148319</v>
+        <v>0.320023300787962</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1044</v>
@@ -5016,19 +5016,19 @@
         <v>1135323</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1074428</v>
+        <v>1078658</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1190223</v>
+        <v>1190681</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.321206947573637</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3039785202766951</v>
+        <v>0.3051751826689975</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.3367392651474167</v>
+        <v>0.3368688685877768</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2025</v>
@@ -5037,19 +5037,19 @@
         <v>2168788</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2079474</v>
+        <v>2091428</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2248795</v>
+        <v>2253006</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.3123887805125485</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2995241358654683</v>
+        <v>0.3012460396769375</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3239129897310936</v>
+        <v>0.3245194397396302</v>
       </c>
     </row>
     <row r="31">
@@ -5066,19 +5066,19 @@
         <v>934809</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>885714</v>
+        <v>883842</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>988357</v>
+        <v>989816</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2742954410230775</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2598896888147709</v>
+        <v>0.2593403719599973</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2900077340290335</v>
+        <v>0.2904358560371894</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>656</v>
@@ -5087,19 +5087,19 @@
         <v>700408</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>655488</v>
+        <v>659226</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>751819</v>
+        <v>753324</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1981603507950545</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1854515368131434</v>
+        <v>0.1865088917930556</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2127053600312109</v>
+        <v>0.2131311592796434</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1535</v>
@@ -5108,19 +5108,19 @@
         <v>1635217</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1562509</v>
+        <v>1558652</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1718713</v>
+        <v>1710155</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.2355341767168453</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2250614303996156</v>
+        <v>0.2245058467080543</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.247560751253842</v>
+        <v>0.2463280075466968</v>
       </c>
     </row>
     <row r="32">
@@ -5137,19 +5137,19 @@
         <v>500795</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>463262</v>
+        <v>457459</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>547514</v>
+        <v>541404</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1469452379173239</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.13593217121671</v>
+        <v>0.1342294949104872</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1606536412899973</v>
+        <v>0.1588609544460601</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>316</v>
@@ -5158,19 +5158,19 @@
         <v>339314</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>306901</v>
+        <v>303543</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>375225</v>
+        <v>375675</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.09599904261276535</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.08682888421767285</v>
+        <v>0.08587866395534384</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.106159121769084</v>
+        <v>0.1062864994867095</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>793</v>
@@ -5179,19 +5179,19 @@
         <v>840109</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>780560</v>
+        <v>787118</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>898540</v>
+        <v>897884</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1210079344258246</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1124307153571702</v>
+        <v>0.1133751794390592</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1294243155026176</v>
+        <v>0.1293297918120755</v>
       </c>
     </row>
     <row r="33">
@@ -5523,19 +5523,19 @@
         <v>41409</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>29957</v>
+        <v>30521</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>54079</v>
+        <v>54502</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06176531740102228</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.04468324229753039</v>
+        <v>0.04552450215328605</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08066417606042983</v>
+        <v>0.08129574845328766</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>82</v>
@@ -5544,19 +5544,19 @@
         <v>85325</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>68773</v>
+        <v>69179</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>103115</v>
+        <v>105556</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1269795795072974</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1023473680984287</v>
+        <v>0.1029512983314764</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.153454717736816</v>
+        <v>0.1570875591944387</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>123</v>
@@ -5565,19 +5565,19 @@
         <v>126734</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>104446</v>
+        <v>108410</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>147934</v>
+        <v>150415</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.09440978838187578</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.07780655407188093</v>
+        <v>0.08075938556578965</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1102026034572478</v>
+        <v>0.112050997789726</v>
       </c>
     </row>
     <row r="5">
@@ -5594,19 +5594,19 @@
         <v>128936</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>107869</v>
+        <v>108719</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>150622</v>
+        <v>150181</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1923207819548372</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1608971540150437</v>
+        <v>0.162164325235085</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.224668120213252</v>
+        <v>0.2240102524861423</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>155</v>
@@ -5615,19 +5615,19 @@
         <v>158444</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>137881</v>
+        <v>137411</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>180514</v>
+        <v>180718</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2357946421925276</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2051920914308188</v>
+        <v>0.2044936440170825</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2686386127190071</v>
+        <v>0.2689412828119506</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>283</v>
@@ -5636,19 +5636,19 @@
         <v>287380</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>258886</v>
+        <v>258143</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>317056</v>
+        <v>315633</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2140826040336062</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1928555390623598</v>
+        <v>0.1923020703761974</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2361892976216282</v>
+        <v>0.2351295430047053</v>
       </c>
     </row>
     <row r="6">
@@ -5665,19 +5665,19 @@
         <v>262999</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>237453</v>
+        <v>236894</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>287024</v>
+        <v>289143</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3922892642599183</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3541847045420738</v>
+        <v>0.3533501459245488</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.428123637072884</v>
+        <v>0.4312845376424611</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>246</v>
@@ -5686,19 +5686,19 @@
         <v>249391</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>224293</v>
+        <v>224992</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>274784</v>
+        <v>276730</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3711408254762993</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.3337889742317396</v>
+        <v>0.3348293643935287</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4089293414680383</v>
+        <v>0.4118261212866056</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>498</v>
@@ -5707,19 +5707,19 @@
         <v>512391</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>480326</v>
+        <v>478311</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>552438</v>
+        <v>543866</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3817029358424144</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3578164349447155</v>
+        <v>0.3563156907237207</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4115361190210527</v>
+        <v>0.4051502717434681</v>
       </c>
     </row>
     <row r="7">
@@ -5736,19 +5736,19 @@
         <v>168890</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>148591</v>
+        <v>148465</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>193306</v>
+        <v>191212</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2519152566709227</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2216374227823075</v>
+        <v>0.2214503111017768</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2883345664976573</v>
+        <v>0.2852118367219279</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>146</v>
@@ -5757,19 +5757,19 @@
         <v>144345</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>125141</v>
+        <v>125182</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>166847</v>
+        <v>166761</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2148122946507867</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1862323724273685</v>
+        <v>0.1862939795441758</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2482994840178908</v>
+        <v>0.2481714617522054</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>309</v>
@@ -5778,19 +5778,19 @@
         <v>313235</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>281832</v>
+        <v>283067</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>343064</v>
+        <v>344128</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2333425315054333</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2099494948607801</v>
+        <v>0.2108690657361497</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2555634501847576</v>
+        <v>0.2563566740891621</v>
       </c>
     </row>
     <row r="8">
@@ -5807,19 +5807,19 @@
         <v>68188</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>52855</v>
+        <v>53380</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>84778</v>
+        <v>85410</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1017093797132995</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07883782982359336</v>
+        <v>0.07962131541690765</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1264552376258664</v>
+        <v>0.1273974815970784</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>36</v>
@@ -5828,19 +5828,19 @@
         <v>34453</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>25192</v>
+        <v>24217</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>48516</v>
+        <v>46987</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.05127265817308899</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.03749041108401188</v>
+        <v>0.03603997351494035</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07220125633854085</v>
+        <v>0.06992597005249619</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>100</v>
@@ -5849,19 +5849,19 @@
         <v>102641</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>83657</v>
+        <v>83501</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>123859</v>
+        <v>124684</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.07646214023667032</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.0623201130847583</v>
+        <v>0.06220349240112735</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.09226802845602323</v>
+        <v>0.09288255922936188</v>
       </c>
     </row>
     <row r="9">
@@ -5953,19 +5953,19 @@
         <v>62466</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>48693</v>
+        <v>47387</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>81396</v>
+        <v>79448</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.06122494256741404</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.04772559255638547</v>
+        <v>0.04644557644221512</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07977868168179236</v>
+        <v>0.07786993477104939</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>76</v>
@@ -5974,19 +5974,19 @@
         <v>83074</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>66395</v>
+        <v>64988</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>103204</v>
+        <v>101125</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.07973430482550149</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.06372541872643674</v>
+        <v>0.06237573156047287</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0990550710457654</v>
+        <v>0.09705937281237696</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>132</v>
@@ -5995,19 +5995,19 @@
         <v>145540</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>120790</v>
+        <v>122107</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>170980</v>
+        <v>173698</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.070576641389128</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05857443707787809</v>
+        <v>0.05921328686042567</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.08291317429280438</v>
+        <v>0.08423107482016816</v>
       </c>
     </row>
     <row r="11">
@@ -6024,19 +6024,19 @@
         <v>170884</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>148288</v>
+        <v>148453</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>200424</v>
+        <v>198135</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1674887904938217</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1453420092918387</v>
+        <v>0.1455041096274228</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1964421452563093</v>
+        <v>0.1941988637556152</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>239</v>
@@ -6045,19 +6045,19 @@
         <v>257640</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>229885</v>
+        <v>232270</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>288591</v>
+        <v>287801</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.247282025844073</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.220642781978006</v>
+        <v>0.2229323188949855</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2769885890329713</v>
+        <v>0.2762302615126889</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>397</v>
@@ -6066,19 +6066,19 @@
         <v>428524</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>392532</v>
+        <v>393692</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>466993</v>
+        <v>465900</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2078036481642769</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1903501700775743</v>
+        <v>0.1909129265022613</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2264586231472018</v>
+        <v>0.2259286223527853</v>
       </c>
     </row>
     <row r="12">
@@ -6095,19 +6095,19 @@
         <v>407267</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>375669</v>
+        <v>372927</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>438510</v>
+        <v>441136</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3991765633881867</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3682061009462636</v>
+        <v>0.3655181431516301</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4297986328121601</v>
+        <v>0.4323726941355578</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>405</v>
@@ -6116,19 +6116,19 @@
         <v>429716</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>395206</v>
+        <v>396503</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>464291</v>
+        <v>461582</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4124402413775712</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3793177198501543</v>
+        <v>0.3805626095443403</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4456249594220704</v>
+        <v>0.4430247480236227</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>784</v>
@@ -6137,19 +6137,19 @@
         <v>836984</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>790791</v>
+        <v>792439</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>880888</v>
+        <v>883750</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4058779245747789</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3834774050540479</v>
+        <v>0.3842768701348951</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4271684566291328</v>
+        <v>0.4285561584570436</v>
       </c>
     </row>
     <row r="13">
@@ -6166,19 +6166,19 @@
         <v>286312</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>257667</v>
+        <v>259594</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>317110</v>
+        <v>318175</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2806236339235275</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2525485693552049</v>
+        <v>0.2544365719822675</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3108104311111566</v>
+        <v>0.3118537854077228</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>208</v>
@@ -6187,19 +6187,19 @@
         <v>220745</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>194824</v>
+        <v>195599</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>249178</v>
+        <v>250116</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2118702111701376</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1869915632020765</v>
+        <v>0.1877353654002412</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2391598496386425</v>
+        <v>0.2400609347070182</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>476</v>
@@ -6208,19 +6208,19 @@
         <v>507057</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>467885</v>
+        <v>471839</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>547323</v>
+        <v>544688</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2458865482483717</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2268909211154131</v>
+        <v>0.228808428462005</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2654129860321358</v>
+        <v>0.2641351848369279</v>
       </c>
     </row>
     <row r="14">
@@ -6237,19 +6237,19 @@
         <v>93340</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>75779</v>
+        <v>74152</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>113652</v>
+        <v>114671</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.09148606962705007</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.0742735491142703</v>
+        <v>0.07267897980581285</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1113945571810387</v>
+        <v>0.112392791840218</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>48</v>
@@ -6258,19 +6258,19 @@
         <v>50712</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>37813</v>
+        <v>37783</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>64892</v>
+        <v>67261</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04867321678271666</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03629291797640317</v>
+        <v>0.03626438332232873</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06228326466880389</v>
+        <v>0.06455668811605143</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>136</v>
@@ -6279,19 +6279,19 @@
         <v>144052</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>122776</v>
+        <v>121879</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>168513</v>
+        <v>170437</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.06985523762344455</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.05953787573697746</v>
+        <v>0.05910245793342489</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08171669414002575</v>
+        <v>0.08264968798972565</v>
       </c>
     </row>
     <row r="15">
@@ -6383,19 +6383,19 @@
         <v>37075</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>26524</v>
+        <v>26079</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>51444</v>
+        <v>51463</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.04886763198841058</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03496069551458133</v>
+        <v>0.03437446271996514</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.06780613939353466</v>
+        <v>0.0678321201271738</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>47</v>
@@ -6404,19 +6404,19 @@
         <v>51690</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>38651</v>
+        <v>38306</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>68259</v>
+        <v>66710</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.06602284652578984</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.04936792719288125</v>
+        <v>0.04892795407663643</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0871859536327898</v>
+        <v>0.08520769854884848</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>79</v>
@@ -6425,19 +6425,19 @@
         <v>88766</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>71004</v>
+        <v>70197</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>109689</v>
+        <v>109354</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.05758004510524546</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.04605868390284416</v>
+        <v>0.04553532031486157</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.07115263113437154</v>
+        <v>0.07093502781921508</v>
       </c>
     </row>
     <row r="17">
@@ -6454,19 +6454,19 @@
         <v>85545</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>69317</v>
+        <v>68323</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>106207</v>
+        <v>104372</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1127532108538122</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09136427254937238</v>
+        <v>0.09005416885722252</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1399880462295487</v>
+        <v>0.1375694789781911</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>138</v>
@@ -6475,19 +6475,19 @@
         <v>150017</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>128358</v>
+        <v>127360</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>173060</v>
+        <v>173016</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1916129273439456</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1639488148956417</v>
+        <v>0.1626738642356181</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2210448311504007</v>
+        <v>0.2209890616718791</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>217</v>
@@ -6496,19 +6496,19 @@
         <v>235561</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>207563</v>
+        <v>209441</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>264826</v>
+        <v>268528</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1528027495431417</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1346411104310856</v>
+        <v>0.1358593009826908</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1717858304463412</v>
+        <v>0.1741877652445001</v>
       </c>
     </row>
     <row r="18">
@@ -6525,19 +6525,19 @@
         <v>306973</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>281351</v>
+        <v>280005</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>335833</v>
+        <v>335928</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.4046103669056806</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3708392727298566</v>
+        <v>0.3690653203460501</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.4426502848113743</v>
+        <v>0.4427743050086643</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>265</v>
@@ -6546,19 +6546,19 @@
         <v>280389</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>254288</v>
+        <v>251783</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>307712</v>
+        <v>308975</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3581344083489295</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3247954096789167</v>
+        <v>0.3215968578030201</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.39303278168348</v>
+        <v>0.3946465942682325</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>545</v>
@@ -6567,19 +6567,19 @@
         <v>587362</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>549504</v>
+        <v>547722</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>626652</v>
+        <v>627064</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.381007179078152</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3564498566486599</v>
+        <v>0.355293716451447</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4064939167794023</v>
+        <v>0.4067608913584619</v>
       </c>
     </row>
     <row r="19">
@@ -6596,19 +6596,19 @@
         <v>223607</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>199727</v>
+        <v>197680</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>250175</v>
+        <v>248826</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2947290631504706</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2632527590333444</v>
+        <v>0.2605544406034226</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3297464443807131</v>
+        <v>0.3279682836640892</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>206</v>
@@ -6617,19 +6617,19 @@
         <v>220186</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>194230</v>
+        <v>196424</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>243329</v>
+        <v>248413</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2812385915433133</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2480854274510905</v>
+        <v>0.2508878991660623</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3107985636995542</v>
+        <v>0.3172926468880517</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>412</v>
@@ -6638,19 +6638,19 @@
         <v>443793</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>407148</v>
+        <v>408397</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>479643</v>
+        <v>481040</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2878778190855018</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2641069703656171</v>
+        <v>0.2649168208731741</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3111325960676091</v>
+        <v>0.3120390894120967</v>
       </c>
     </row>
     <row r="20">
@@ -6667,19 +6667,19 @@
         <v>105488</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>88510</v>
+        <v>88119</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>126044</v>
+        <v>128457</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.139039727101626</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1166613235108576</v>
+        <v>0.1161460219541729</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1661345279495743</v>
+        <v>0.1693144551960607</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>78</v>
@@ -6688,19 +6688,19 @@
         <v>80633</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>65249</v>
+        <v>65124</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>99053</v>
+        <v>100515</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1029912262380219</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08334081613294947</v>
+        <v>0.0831808470529453</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1265176916252069</v>
+        <v>0.1283855566339164</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>176</v>
@@ -6709,19 +6709,19 @@
         <v>186121</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>163609</v>
+        <v>159882</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>215428</v>
+        <v>213710</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1207322071879591</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1061290847394658</v>
+        <v>0.103711763280826</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1397429346383053</v>
+        <v>0.1386284035114032</v>
       </c>
     </row>
     <row r="21">
@@ -6813,19 +6813,19 @@
         <v>76158</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>58925</v>
+        <v>60557</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>94035</v>
+        <v>94601</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08157441544013556</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06311591723191241</v>
+        <v>0.06486307117494114</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1007226541371624</v>
+        <v>0.101328683254017</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>93</v>
@@ -6834,19 +6834,19 @@
         <v>104015</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>85138</v>
+        <v>85448</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>125566</v>
+        <v>126125</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1002810200749821</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.08208190668379393</v>
+        <v>0.08238080776098003</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1210581497014215</v>
+        <v>0.1215973083253113</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>164</v>
@@ -6855,19 +6855,19 @@
         <v>180173</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>154220</v>
+        <v>153935</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>206991</v>
+        <v>206782</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.09141951711850706</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07825076562356838</v>
+        <v>0.07810652312199501</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1050269424044893</v>
+        <v>0.1049208078594661</v>
       </c>
     </row>
     <row r="23">
@@ -6884,19 +6884,19 @@
         <v>167711</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>145454</v>
+        <v>145508</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>189326</v>
+        <v>193363</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1796382824545641</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1557983807440286</v>
+        <v>0.1558558636538721</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2027895296174008</v>
+        <v>0.2071145384949364</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>207</v>
@@ -6905,19 +6905,19 @@
         <v>227378</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>201443</v>
+        <v>201536</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>255455</v>
+        <v>255638</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.2192157510634415</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.194211241678677</v>
+        <v>0.1943009334368724</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2462849400317127</v>
+        <v>0.2464613350173269</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>377</v>
@@ -6926,19 +6926,19 @@
         <v>395089</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>362115</v>
+        <v>361806</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>431817</v>
+        <v>433947</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2004675141742064</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1837365578682281</v>
+        <v>0.183579837049001</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2191027847240337</v>
+        <v>0.2201836774750078</v>
       </c>
     </row>
     <row r="24">
@@ -6955,19 +6955,19 @@
         <v>329172</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>300521</v>
+        <v>298608</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>359063</v>
+        <v>359512</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3525817212203367</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3218928984562983</v>
+        <v>0.3198441150087966</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3845981001270435</v>
+        <v>0.3850791416420268</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>351</v>
@@ -6976,19 +6976,19 @@
         <v>377168</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>346881</v>
+        <v>344894</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>408755</v>
+        <v>409259</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.3636289109686738</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.3344293423197972</v>
+        <v>0.332512837870684</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3940813226064704</v>
+        <v>0.3945677045887141</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>681</v>
@@ -6997,19 +6997,19 @@
         <v>706341</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>663295</v>
+        <v>664990</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>748434</v>
+        <v>751636</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3583957483222963</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.3365546511581028</v>
+        <v>0.3374144752100349</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3797538666517147</v>
+        <v>0.3813783060654247</v>
       </c>
     </row>
     <row r="25">
@@ -7026,19 +7026,19 @@
         <v>247379</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>221001</v>
+        <v>220851</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>275287</v>
+        <v>275769</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2649719689471832</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2367171188693729</v>
+        <v>0.2365571749946123</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2948640572807792</v>
+        <v>0.2953804764617911</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>211</v>
@@ -7047,19 +7047,19 @@
         <v>232743</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>204857</v>
+        <v>207211</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>262497</v>
+        <v>261248</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2243882090825046</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1975028649112949</v>
+        <v>0.1997731100329898</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2530737344833036</v>
+        <v>0.251869715552427</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>460</v>
@@ -7068,19 +7068,19 @@
         <v>480123</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>441507</v>
+        <v>441578</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>518739</v>
+        <v>520616</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.243613136055933</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2240196123782715</v>
+        <v>0.224055543776278</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2632070103271916</v>
+        <v>0.2641594670776149</v>
       </c>
     </row>
     <row r="26">
@@ -7097,19 +7097,19 @@
         <v>113184</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>93203</v>
+        <v>94901</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>135723</v>
+        <v>136233</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1212336119377805</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.09983146416968333</v>
+        <v>0.1016504704249312</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.145375418054207</v>
+        <v>0.1459214813738691</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>92</v>
@@ -7118,19 +7118,19 @@
         <v>95930</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>78692</v>
+        <v>78093</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>117518</v>
+        <v>116534</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.09248610881039804</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.07586753523429489</v>
+        <v>0.07528989287846133</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1132997697836092</v>
+        <v>0.1123503680797323</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>200</v>
@@ -7139,19 +7139,19 @@
         <v>209114</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>181431</v>
+        <v>183353</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>234715</v>
+        <v>236703</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1061040843290572</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.09205786042558953</v>
+        <v>0.09303277707440666</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1190941404144015</v>
+        <v>0.1201025013997818</v>
       </c>
     </row>
     <row r="27">
@@ -7243,19 +7243,19 @@
         <v>217108</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>189695</v>
+        <v>189405</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>249784</v>
+        <v>246776</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.06417657725149097</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.0560733501681472</v>
+        <v>0.05598745272689741</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.07383542068214105</v>
+        <v>0.07294612343074867</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>298</v>
@@ -7264,19 +7264,19 @@
         <v>324104</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>289584</v>
+        <v>290756</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>359527</v>
+        <v>360886</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.09171047219704917</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.08194227793050518</v>
+        <v>0.08227389238126245</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.1017339390781253</v>
+        <v>0.1021183244613529</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>498</v>
@@ -7285,19 +7285,19 @@
         <v>541213</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>495120</v>
+        <v>493336</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>586210</v>
+        <v>586630</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.07824408211092942</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.07158032256401362</v>
+        <v>0.07132245543490355</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.08474941218722148</v>
+        <v>0.08481013460187042</v>
       </c>
     </row>
     <row r="29">
@@ -7314,19 +7314,19 @@
         <v>553076</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>508281</v>
+        <v>512065</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>593031</v>
+        <v>599206</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1634874556475614</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1502462308747244</v>
+        <v>0.1513648648626965</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1752982485514706</v>
+        <v>0.1771235423006126</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>739</v>
@@ -7335,19 +7335,19 @@
         <v>793479</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>743098</v>
+        <v>743804</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>845306</v>
+        <v>848105</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2245274585901056</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.2102713751838783</v>
+        <v>0.2104711410162611</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.2391925952978657</v>
+        <v>0.2399846145425105</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1274</v>
@@ -7356,19 +7356,19 @@
         <v>1346555</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1279519</v>
+        <v>1282480</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1411964</v>
+        <v>1416866</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1946737640035792</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.184982242824087</v>
+        <v>0.185410297208376</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2041300759599773</v>
+        <v>0.2048388552075637</v>
       </c>
     </row>
     <row r="30">
@@ -7385,19 +7385,19 @@
         <v>1306412</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1254843</v>
+        <v>1248090</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>1361177</v>
+        <v>1365555</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3861714593537147</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3709276014333689</v>
+        <v>0.3689317124006879</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.4023598769336169</v>
+        <v>0.4036538512031169</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>1267</v>
@@ -7406,19 +7406,19 @@
         <v>1336665</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>1273521</v>
+        <v>1275359</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>1393640</v>
+        <v>1396273</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.3782304774130676</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.3603628581321436</v>
+        <v>0.3608830042088639</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.394352435403041</v>
+        <v>0.395097584685147</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>2508</v>
@@ -7427,19 +7427,19 @@
         <v>2643077</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>2564148</v>
+        <v>2562198</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>2728950</v>
+        <v>2724174</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.382114285377434</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.3707033690610571</v>
+        <v>0.3704214373090783</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.3945291087377386</v>
+        <v>0.3938386087816138</v>
       </c>
     </row>
     <row r="31">
@@ -7456,19 +7456,19 @@
         <v>926188</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>871281</v>
+        <v>874475</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>977910</v>
+        <v>982677</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.2737783184890297</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2575481262095114</v>
+        <v>0.2584920833968805</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2890673210389109</v>
+        <v>0.2904764525788239</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>771</v>
@@ -7477,19 +7477,19 @@
         <v>818019</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>768679</v>
+        <v>766943</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>871400</v>
+        <v>865403</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2314714332470252</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.217509822444379</v>
+        <v>0.2170186093930016</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.2465764563215731</v>
+        <v>0.244879411008525</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1657</v>
@@ -7498,19 +7498,19 @@
         <v>1744207</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1666645</v>
+        <v>1675057</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>1817360</v>
+        <v>1825232</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.252163057919961</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.240949747131418</v>
+        <v>0.2421659728445186</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.2627389709151201</v>
+        <v>0.2638770007935243</v>
       </c>
     </row>
     <row r="32">
@@ -7527,19 +7527,19 @@
         <v>380201</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>345667</v>
+        <v>344126</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>416177</v>
+        <v>416127</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1123861892582032</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1021782454022562</v>
+        <v>0.1017225615110083</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1230205366893251</v>
+        <v>0.1230057956748094</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>254</v>
@@ -7548,19 +7548,19 @@
         <v>261728</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>234389</v>
+        <v>229647</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>294676</v>
+        <v>294485</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0740601585527524</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.06632408078914374</v>
+        <v>0.06498217361324525</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.08338327797881301</v>
+        <v>0.08332931344355266</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>612</v>
@@ -7569,19 +7569,19 @@
         <v>641929</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>593409</v>
+        <v>592234</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>691076</v>
+        <v>691442</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.09280481058809635</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.08579018841640859</v>
+        <v>0.08562032112354</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.09991009318434077</v>
+        <v>0.09996296442153808</v>
       </c>
     </row>
     <row r="33">
